--- a/Employee_Reports35/Levitico Jose Caniedo Q0492.xlsx
+++ b/Employee_Reports35/Levitico Jose Caniedo Q0492.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,9 +461,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="52" customWidth="1" min="2" max="2"/>
+    <col width="73" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1344,11 +1344,11 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>-97</v>
+        <v>-98</v>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>SOP for  Powered Roller Deck And ULD Aisle (SOPs)</t>
+          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -1372,20 +1372,20 @@
       <c r="E20" s="3" t="inlineStr"/>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>18-Oct-2025</t>
+          <t>05-Apr-2025</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>18-Oct-2026</t>
+          <t>05-Apr-2026</t>
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>349</v>
+        <v>152</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1401,36 +1401,416 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
+          <t>Replacement Procedure Of ASI Gateway (SOPs)</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-041</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>05-Apr-2025</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>05-Apr-2026</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>152</v>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-003</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>26-Jul-2025</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>26-Jul-2026</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>264</v>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-009</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>26-Jul-2025</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>26-Jul-2026</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>264</v>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-010</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>26-Jul-2025</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>26-Jul-2026</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>264</v>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-001</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>26-Jul-2025</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>26-Jul-2026</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>264</v>
+      </c>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>SOP for  Powered Roller Deck And ULD Aisle (SOPs)</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+      <c r="D26" s="3" t="inlineStr"/>
+      <c r="E26" s="3" t="inlineStr"/>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>18-Oct-2025</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>18-Oct-2026</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>348</v>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-011</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>16-Aug-2025</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>16-Aug-2026</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>285</v>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-018</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>16-Aug-2025</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>16-Aug-2026</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>285</v>
+      </c>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K28" s="3" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
           <t>IS0 55001 (Other Trainings)</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr"/>
-      <c r="D21" s="3" t="inlineStr"/>
-      <c r="E21" s="3" t="inlineStr"/>
-      <c r="F21" s="3" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr"/>
+      <c r="D29" s="3" t="inlineStr"/>
+      <c r="E29" s="3" t="inlineStr"/>
+      <c r="F29" s="3" t="inlineStr">
         <is>
           <t>02-Jul-2025</t>
         </is>
       </c>
-      <c r="G21" s="3" t="inlineStr">
+      <c r="G29" s="3" t="inlineStr">
         <is>
           <t>02-Jul-2027</t>
         </is>
       </c>
-      <c r="H21" s="3" t="n">
-        <v>606</v>
-      </c>
-      <c r="I21" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K21" s="3" t="inlineStr"/>
+      <c r="H29" s="3" t="n">
+        <v>605</v>
+      </c>
+      <c r="I29" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K29" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Levitico Jose Caniedo Q0492.xlsx
+++ b/Employee_Reports35/Levitico Jose Caniedo Q0492.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -955,20 +955,20 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>15-Aug-2025</t>
+          <t>20-Oct-2025</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>15-Aug-2027</t>
+          <t>20-Oct-2027</t>
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>649</v>
+        <v>714</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1004,20 +1004,20 @@
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>06-Apr-2025</t>
+          <t>20-Oct-2025</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>06-Apr-2027</t>
+          <t>20-Oct-2027</t>
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>518</v>
+        <v>714</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1082,17 +1082,17 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Safety Circuits and Controls (AMH Trainings)</t>
+          <t>Diagnosis Of Beckoff Module And Troubleshooting Guide (Cargo Trainings)</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>CARGO</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>LSME-AMH-M-004</t>
+          <t>LSME-CRG-M-012</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1102,20 +1102,20 @@
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>08-Jan-2025</t>
+          <t>21-Oct-2025</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>08-Jan-2027</t>
+          <t>21-Oct-2027</t>
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>430</v>
+        <v>715</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Storage Retrieval Machine (AMH Trainings)</t>
+          <t>Safety Circuits and Controls (AMH Trainings)</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>LSME-AMH-M-005</t>
+          <t>LSME-AMH-M-004</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1151,20 +1151,20 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>30-Sep-2024</t>
+          <t>08-Jan-2025</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>30-Sep-2026</t>
+          <t>08-Jan-2027</t>
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>330</v>
+        <v>429</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Chain and Roller conveyors (AMH Trainings)</t>
+          <t>Storage Retrieval Machine (AMH Trainings)</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>LSME-AMH-M-002</t>
+          <t>LSME-AMH-M-005</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1200,20 +1200,20 @@
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>26-Nov-2024</t>
+          <t>30-Sep-2024</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>26-Nov-2026</t>
+          <t>30-Sep-2026</t>
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>387</v>
+        <v>329</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Sorting Transfer Vehicle (AMH Trainings)</t>
+          <t>Chain and Roller conveyors (AMH Trainings)</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>LSME-AMH-M-006</t>
+          <t>LSME-AMH-M-002</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1249,20 +1249,20 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>12-Jan-2025</t>
+          <t>26-Nov-2024</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>12-Jan-2027</t>
+          <t>26-Nov-2026</t>
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1278,122 +1278,134 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
+          <t>Sorting Transfer Vehicle (AMH Trainings)</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>AMH</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>LSME-AMH-M-006</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>EQUIPMENT MANUAL</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>12-Jan-2025</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>12-Jan-2027</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>433</v>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
           <t>Logimat (AMH Trainings)</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>AMH</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>LSME-AMH-M-010</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>EQUIPMENT MANUAL</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr">
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>14-Nov-2024</t>
         </is>
       </c>
-      <c r="G18" s="3" t="inlineStr">
+      <c r="G19" s="3" t="inlineStr">
         <is>
           <t>14-Nov-2026</t>
         </is>
       </c>
-      <c r="H18" s="3" t="n">
-        <v>375</v>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="H19" s="3" t="n">
+        <v>374</v>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Endangered by Electricity A safety Training (SOPs)</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr"/>
-      <c r="D19" s="4" t="inlineStr"/>
-      <c r="E19" s="4" t="inlineStr"/>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr"/>
+      <c r="D20" s="4" t="inlineStr"/>
+      <c r="E20" s="4" t="inlineStr"/>
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>29-Jul-2024</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="G20" s="4" t="inlineStr">
         <is>
           <t>29-Jul-2025</t>
         </is>
       </c>
-      <c r="H19" s="4" t="n">
-        <v>-98</v>
-      </c>
-      <c r="I19" s="4" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="H20" s="4" t="n">
+        <v>-99</v>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="K19" s="4" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr"/>
-      <c r="D20" s="3" t="inlineStr"/>
-      <c r="E20" s="3" t="inlineStr"/>
-      <c r="F20" s="3" t="inlineStr">
-        <is>
-          <t>05-Apr-2025</t>
-        </is>
-      </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>05-Apr-2026</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="n">
-        <v>152</v>
-      </c>
-      <c r="I20" s="3" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K20" s="3" t="inlineStr"/>
+      <c r="K20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
@@ -1401,24 +1413,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Replacement Procedure Of ASI Gateway (SOPs)</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-041</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
+      <c r="E21" s="3" t="inlineStr"/>
       <c r="F21" s="3" t="inlineStr">
         <is>
           <t>05-Apr-2025</t>
@@ -1430,11 +1430,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
+          <t>Replacement Procedure Of ASI Gateway (SOPs)</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-003</t>
+          <t>LSME-CRG-SOP-041</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -1470,20 +1470,20 @@
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>26-Jul-2025</t>
+          <t>05-Apr-2025</t>
         </is>
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>26-Jul-2026</t>
+          <t>05-Apr-2026</t>
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>264</v>
+        <v>151</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
+          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-009</t>
+          <t>LSME-CRG-SOP-003</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1528,11 +1528,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
+          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-010</t>
+          <t>LSME-CRG-SOP-009</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1577,11 +1577,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
+          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-001</t>
+          <t>LSME-CRG-SOP-010</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -1626,11 +1626,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1646,28 +1646,40 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>SOP for  Powered Roller Deck And ULD Aisle (SOPs)</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr"/>
-      <c r="D26" s="3" t="inlineStr"/>
-      <c r="E26" s="3" t="inlineStr"/>
+          <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-001</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>18-Oct-2025</t>
+          <t>26-Jul-2025</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>18-Oct-2026</t>
+          <t>26-Jul-2026</t>
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1683,40 +1695,28 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-011</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>SOP for  Powered Roller Deck And ULD Aisle (SOPs)</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr"/>
+      <c r="E27" s="3" t="inlineStr"/>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>16-Aug-2025</t>
+          <t>18-Oct-2025</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>16-Aug-2026</t>
+          <t>18-Oct-2026</t>
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>285</v>
+        <v>347</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
+          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-018</t>
+          <t>LSME-CRG-SOP-011</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1761,11 +1761,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1781,36 +1781,85 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
+          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-018</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>16-Aug-2025</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>16-Aug-2026</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>284</v>
+      </c>
+      <c r="I29" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
           <t>IS0 55001 (Other Trainings)</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr"/>
-      <c r="D29" s="3" t="inlineStr"/>
-      <c r="E29" s="3" t="inlineStr"/>
-      <c r="F29" s="3" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr"/>
+      <c r="D30" s="3" t="inlineStr"/>
+      <c r="E30" s="3" t="inlineStr"/>
+      <c r="F30" s="3" t="inlineStr">
         <is>
           <t>02-Jul-2025</t>
         </is>
       </c>
-      <c r="G29" s="3" t="inlineStr">
+      <c r="G30" s="3" t="inlineStr">
         <is>
           <t>02-Jul-2027</t>
         </is>
       </c>
-      <c r="H29" s="3" t="n">
-        <v>605</v>
-      </c>
-      <c r="I29" s="3" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K29" s="3" t="inlineStr"/>
+      <c r="H30" s="3" t="n">
+        <v>604</v>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
